--- a/QA_summary.xlsx
+++ b/QA_summary.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\scripts_devs\test_langchain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\scripts_devs\embed_try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A71DB8-D324-4F32-869F-ADAD5E79A5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21E2FE-1A93-4906-ABD5-EA6C6B954423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{EC30603C-2A40-47BD-95D0-E85D24C3FFC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{EC30603C-2A40-47BD-95D0-E85D24C3FFC1}"/>
   </bookViews>
   <sheets>
-    <sheet name="GPT-3_emb_PtkPp_w_commentary" sheetId="1" r:id="rId1"/>
-    <sheet name="GPT-3.5_emb_PtkPp_no_commentary" sheetId="3" r:id="rId2"/>
-    <sheet name="GPT-4_emb_PtkPp_no_commentary" sheetId="2" r:id="rId3"/>
-    <sheet name="GPT-3.5_ChatGPT_no_embedd" sheetId="6" r:id="rId4"/>
-    <sheet name="GPT-4_ChatGPT_no_embed" sheetId="5" r:id="rId5"/>
-    <sheet name="Summary" sheetId="7" r:id="rId6"/>
+    <sheet name="Summary" sheetId="7" r:id="rId1"/>
+    <sheet name="GPT-3_emb_PtkPp_w_commentary" sheetId="1" r:id="rId2"/>
+    <sheet name="GPT-3.5_emb_PtkPp_no_commentary" sheetId="3" r:id="rId3"/>
+    <sheet name="GPT-4_emb_PtkPp_no_commentary" sheetId="2" r:id="rId4"/>
+    <sheet name="GPT-3.5_ChatGPT_no_embedd" sheetId="6" r:id="rId5"/>
+    <sheet name="GPT-4_ChatGPT_no_embed" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="live_dataset_Ptk_Pp" localSheetId="0">'GPT-3_emb_PtkPp_w_commentary'!$A$1:$H$11</definedName>
+    <definedName name="live_dataset_Ptk_Pp" localSheetId="1">'GPT-3_emb_PtkPp_w_commentary'!$A$1:$H$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="206">
   <si>
     <t>question</t>
   </si>
@@ -92,9 +92,6 @@
     <t>A hitelezők igénybejelentése a tőkeleszállításról szóló hirdetmény második közzétételét követő harmincnapos jogvesztő határidőn belül történhet.</t>
   </si>
   <si>
-    <t>Mi a Microsoft legsikeresebb terméke?</t>
-  </si>
-  <si>
     <t>Ha már volt igazságügyi szakértő kirendelve, mikor lehet új igazságügyi szakértőt kirendelni egy perben?</t>
   </si>
   <si>
@@ -128,18 +125,12 @@
     <t>Nem tudom</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nem tudom</t>
-  </si>
-  <si>
     <t xml:space="preserve"> tartalmában helyes válasz</t>
   </si>
   <si>
     <t xml:space="preserve"> helytelen válasz,  helyes válasz Pp. 328. § (1): (1) Ha a perben jelentős tény megállapításához személy  tárgy  helyszín vagy esemény közvetlen megvizsgálása  illetve megfigyelése szükséges  a bíróság szemlét rendel el.</t>
   </si>
   <si>
-    <t xml:space="preserve"> ellenpróba volt, hogy nem Ptk./Pp. kérdés esetén ad-e bármi hallucinált vagy más forrásból vett választ</t>
-  </si>
-  <si>
     <t>Ha már eljárt az ügyben kirendelt igazságügyi szakértő, mikor rendelhet ki a bíróság új igazságügyi szakértőt?</t>
   </si>
   <si>
@@ -282,9 +273,6 @@
   </si>
   <si>
     <t>gpt-3</t>
-  </si>
-  <si>
-    <t>[Más kérdések, más módszerrel kérdezés, de illusztrációnak jó]</t>
   </si>
   <si>
     <t>If the expert's opinion is questionable and cannot be resolved despite the expert's explanations, or if the expert's opinion is incomplete despite the information provided, the court may appoint a new expert upon request. Additionally, the court may appoint a panel of experts if the new expert's appointment allows for further appointments and the issue falls within the panel's area of expertise. The appointed expert must comply with the same provisions as the original expert, and the panel's designated member or representative may be summoned to the hearing when the expert opinion is presented.</t>
@@ -403,9 +391,6 @@
   </si>
   <si>
     <t>Exp2</t>
-  </si>
-  <si>
-    <t>Exp1</t>
   </si>
   <si>
     <t>Ha a kirendelt szakértő szakvéleménye aggályos és az aggályosság a szakértő által adott felvilágosítás ellenére sem volt kiküszöbölhető, akkor a bíróság indítványra új szakértőt rendel ki. Ezt a 315. § (1) bekezdése írja elő.</t>
@@ -691,6 +676,9 @@
   </si>
   <si>
     <t>GPT-3 (diff questions, diff corpus)</t>
+  </si>
+  <si>
+    <t>[Más kérdések, más módszerrel kérdezés, de illusztrációnak jó arra, hogy a szélesebb forrás sem feltétlenül segít]</t>
   </si>
 </sst>
 </file>
@@ -767,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,15 +778,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,11 +1107,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EC52AC-B46C-4628-8173-9BF5988C67C4}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9A100D-DC7A-4867-BCBB-6C4E5312B866}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1171,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1185,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1199,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1213,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1221,13 +1276,13 @@
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1235,13 +1290,13 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1249,13 +1304,13 @@
     </row>
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1263,13 +1318,13 @@
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1277,68 +1332,57 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>61</v>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D11)/10</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1347,12 +1391,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AE47FF-0FA1-4077-B1CD-CC3F31B76BDA}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,33 +1416,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1409,13 +1453,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1426,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1440,16 +1484,16 @@
     </row>
     <row r="5" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1457,16 +1501,16 @@
     </row>
     <row r="6" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1474,16 +1518,16 @@
     </row>
     <row r="7" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1491,16 +1535,16 @@
     </row>
     <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1508,16 +1552,16 @@
     </row>
     <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1525,16 +1569,16 @@
     </row>
     <row r="10" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1542,16 +1586,16 @@
     </row>
     <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1559,16 +1603,16 @@
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1576,16 +1620,16 @@
     </row>
     <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1593,7 +1637,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <f>SUM(E1:E13)/12</f>
@@ -1608,33 +1652,33 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1646,13 +1690,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1664,13 +1708,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1679,16 +1723,16 @@
     </row>
     <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1697,16 +1741,16 @@
     </row>
     <row r="22" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1715,16 +1759,16 @@
     </row>
     <row r="23" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1733,16 +1777,16 @@
     </row>
     <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,16 +1795,16 @@
     </row>
     <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1769,16 +1813,16 @@
     </row>
     <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1787,16 +1831,16 @@
     </row>
     <row r="27" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1805,16 +1849,16 @@
     </row>
     <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1823,16 +1867,16 @@
     </row>
     <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1841,7 +1885,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <f>SUM(E17:E29)/12</f>
@@ -1856,33 +1900,33 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1893,13 +1937,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1910,13 +1954,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1924,16 +1968,16 @@
     </row>
     <row r="36" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1941,16 +1985,16 @@
     </row>
     <row r="37" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1958,16 +2002,16 @@
     </row>
     <row r="38" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1975,16 +2019,16 @@
     </row>
     <row r="39" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1992,16 +2036,16 @@
     </row>
     <row r="40" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2009,16 +2053,16 @@
     </row>
     <row r="41" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2026,16 +2070,16 @@
     </row>
     <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2043,16 +2087,16 @@
     </row>
     <row r="43" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2060,16 +2104,16 @@
     </row>
     <row r="44" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2077,7 +2121,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E45">
         <f>SUM(E32:E44)/12</f>
@@ -2092,33 +2136,33 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2129,13 +2173,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2146,13 +2190,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2160,16 +2204,16 @@
     </row>
     <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2177,16 +2221,16 @@
     </row>
     <row r="51" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2194,16 +2238,16 @@
     </row>
     <row r="52" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2211,16 +2255,16 @@
     </row>
     <row r="53" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2228,16 +2272,16 @@
     </row>
     <row r="54" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2245,16 +2289,16 @@
     </row>
     <row r="55" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2262,16 +2306,16 @@
     </row>
     <row r="56" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2279,16 +2323,16 @@
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2296,16 +2340,16 @@
     </row>
     <row r="58" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2313,7 +2357,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E59">
         <f>SUM(E46:E58)/12</f>
@@ -2322,87 +2366,99 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E91">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E93">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94">
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12">
         <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>145</v>
+      <c r="A99" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2413,27 +2469,27 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2444,13 +2500,13 @@
         <v>2</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2461,13 +2517,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2475,128 +2531,128 @@
     </row>
     <row r="104" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2605,12 +2661,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BCFA42-1DD7-4099-8F6F-14DF62ED2E55}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,30 +2682,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2660,13 +2714,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2677,13 +2731,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2691,16 +2745,16 @@
     </row>
     <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2708,16 +2762,16 @@
     </row>
     <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2725,16 +2779,16 @@
     </row>
     <row r="7" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2742,16 +2796,16 @@
     </row>
     <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2759,16 +2813,16 @@
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2776,16 +2830,16 @@
     </row>
     <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2793,16 +2847,16 @@
     </row>
     <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2810,16 +2864,16 @@
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2827,16 +2881,16 @@
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2844,7 +2898,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <f>SUM(E1:E13)/12</f>
@@ -2853,42 +2907,42 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F8A114-AB28-42D7-8356-B8BF68108B24}">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -2924,42 +2978,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="10">
+        <v>91</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="405" x14ac:dyDescent="0.25">
@@ -2967,22 +3021,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="375" x14ac:dyDescent="0.25">
@@ -2990,237 +3044,237 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="10">
+        <v>91</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="10">
+        <v>91</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="312.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="10">
+        <v>91</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="10">
+        <v>91</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="10">
+        <v>91</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="10">
+        <v>91</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="10">
+        <v>91</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="10">
+        <v>91</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="10">
+        <v>91</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <f>SUM(F1:F13)/12</f>
@@ -3265,7 +3319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00FCD06-C4AD-4D11-B029-5985AA5C5611}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -3290,48 +3344,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="10">
+        <v>91</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -3339,25 +3393,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="10">
+        <v>91</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -3365,243 +3419,243 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="10">
+        <v>91</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="270" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="10">
+        <v>91</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="10">
+        <v>91</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="10">
+        <v>91</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="10">
+        <v>91</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="10">
+        <v>91</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="10">
+        <v>91</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="10">
+        <v>91</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="10">
+        <v>91</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <f>SUM(F1:F13)/12</f>
@@ -3610,106 +3664,42 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EC52AC-B46C-4628-8173-9BF5988C67C4}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.3</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
